--- a/Supp6_HarmonizedNutrientRequirements_AllentEtAl2020.xlsx
+++ b/Supp6_HarmonizedNutrientRequirements_AllentEtAl2020.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kates\Box\CANDASA (Shared Files)\Outputs\GhTzMw_SoftwareTools\Nutrient Requirements - DRIs + WHO growth charts\Gates Open Research Article\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/771c65effd2904ee/Documents/GitHub/Nutrient-Requirements-Software-Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFCABED-5875-4422-9940-3020E14B12B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{FFFCABED-5875-4422-9940-3020E14B12B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03C93450-301E-4663-8D9D-20945D719FFB}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" tabRatio="740" xr2:uid="{04566773-C0ED-480C-948A-5F3BA863EC52}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="740" activeTab="2" xr2:uid="{04566773-C0ED-480C-948A-5F3BA863EC52}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="8" r:id="rId1"/>
     <sheet name="Units_Notes" sheetId="6" r:id="rId2"/>
-    <sheet name="Reference_Values" sheetId="13" r:id="rId3"/>
+    <sheet name="AgeSexGroupsRefVals" sheetId="13" r:id="rId3"/>
     <sheet name="H-AR" sheetId="1" r:id="rId4"/>
     <sheet name="H-UL" sheetId="9" r:id="rId5"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="78">
   <si>
     <t>Infant</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>unit_note</t>
-  </si>
-  <si>
-    <t>Sources:</t>
   </si>
   <si>
     <t>Units and other notes</t>
@@ -283,6 +280,30 @@
   </si>
   <si>
     <t xml:space="preserve">This Excel Workbook contains the harmonized nutrient requirements proposed by Allen et al (2020). </t>
+  </si>
+  <si>
+    <t>Supplement 6 contains 5 sheets</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Credit:</t>
+  </si>
+  <si>
+    <t>This work is in the public domain in the US.</t>
+  </si>
+  <si>
+    <t>Specific notes:</t>
   </si>
 </sst>
 </file>
@@ -376,11 +397,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -389,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -416,12 +446,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,122 +775,157 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.15234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="93.3046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="111.15234375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.84375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.15234375" style="2"/>
+    <col min="1" max="1" width="24.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="93.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="111.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:2" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="10">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="47.6" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="1">
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="Allen, L.H., A.L. Carriquiry, and S.P. Murphy. 2019. “Perspective: Proposed Harmonized Nutrient Reference Values for Populations.” Advances in Nutrition." xr:uid="{B257D69B-78A9-4AB9-BC45-9A5317815B6F}"/>
+    <hyperlink ref="A16" r:id="rId1" display="Allen, L.H., A.L. Carriquiry, and S.P. Murphy. 2019. “Perspective: Proposed Harmonized Nutrient Reference Values for Populations.” Advances in Nutrition." xr:uid="{B257D69B-78A9-4AB9-BC45-9A5317815B6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -876,16 +946,16 @@
       <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" customWidth="1"/>
-    <col min="4" max="4" width="16.3046875" customWidth="1"/>
-    <col min="5" max="5" width="91.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -902,7 +972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -910,16 +980,16 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -933,10 +1003,10 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -947,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -961,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -975,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -992,7 +1062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1006,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1020,7 +1090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1034,7 +1104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1048,10 +1118,10 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1065,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1076,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1087,7 +1157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1098,10 +1168,10 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
@@ -1112,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1123,7 +1193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21</v>
       </c>
@@ -1134,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1145,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1163,30 +1233,30 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A27"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1195,7 +1265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1212,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1229,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1246,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1263,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1280,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1297,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1314,7 +1384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1331,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1348,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1365,7 +1435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1382,7 +1452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1399,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1416,7 +1486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1433,7 +1503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1450,7 +1520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1467,7 +1537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1484,7 +1554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1501,7 +1571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1518,7 +1588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1535,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1552,7 +1622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1569,7 +1639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1586,7 +1656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1603,7 +1673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1620,7 +1690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1657,26 +1727,26 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.15234375" customWidth="1"/>
-    <col min="12" max="12" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1721,13 +1791,13 @@
         <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>31</v>
@@ -1739,19 +1809,19 @@
         <v>32</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1834,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1917,7 +1987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2000,7 +2070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2083,7 +2153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2166,7 +2236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2249,7 +2319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2332,7 +2402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2415,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2498,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2581,7 +2651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2664,7 +2734,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2747,7 +2817,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2830,7 +2900,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2913,7 +2983,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2996,7 +3066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3079,7 +3149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3162,7 +3232,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3245,7 +3315,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3328,7 +3398,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3411,7 +3481,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3494,7 +3564,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3577,7 +3647,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3660,7 +3730,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3743,7 +3813,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3826,7 +3896,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3930,25 +4000,25 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53515625" customWidth="1"/>
-    <col min="3" max="3" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -3997,7 +4067,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4053,7 +4123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4109,7 +4179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4165,7 +4235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4221,7 +4291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4277,7 +4347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4333,7 +4403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4389,7 +4459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4445,7 +4515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4501,7 +4571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4557,7 +4627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4613,7 +4683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4669,7 +4739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4725,7 +4795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4781,7 +4851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4837,7 +4907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4893,7 +4963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4949,7 +5019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5005,7 +5075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5061,7 +5131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5117,7 +5187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5173,7 +5243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5229,7 +5299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5285,7 +5355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5341,7 +5411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5397,7 +5467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
